--- a/Regression/Scenarios/EmbeddingPython/config.xlsx
+++ b/Regression/Scenarios/EmbeddingPython/config.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfrey\Git\DtkTrunk\Regression\Scenarios\EmbeddingPython\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="270" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="270" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Demographics" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Commissioning" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Epi" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sampling" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Reporting" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Demographics" sheetId="2" r:id="rId2"/>
+    <sheet name="Commissioning" sheetId="3" r:id="rId3"/>
+    <sheet name="Epi" sheetId="4" r:id="rId4"/>
+    <sheet name="Sampling" sheetId="5" r:id="rId5"/>
+    <sheet name="Reporting" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>Campaign_Filename</t>
   </si>
@@ -202,12 +206,6 @@
     <t>Acquisition_Blocking_Immunity_Duration_Before_Decay</t>
   </si>
   <si>
-    <t>Animal_Reservoir_Type</t>
-  </si>
-  <si>
-    <t>NO_ZOONOSIS</t>
-  </si>
-  <si>
     <t>Base_Incubation_Period</t>
   </si>
   <si>
@@ -359,16 +357,16 @@
   </si>
   <si>
     <t>Report_Event_Recorder</t>
+  </si>
+  <si>
+    <t>Enable_Infectivity_Reservoir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -377,23 +375,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Courier 10 Pitch"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -406,7 +388,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -414,221 +396,489 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="A20" activeCellId="0" pane="topLeft" sqref="A20"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.0561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6377551020408"/>
+    <col min="1" max="1" width="49.85546875"/>
+    <col min="2" max="2" width="47"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="1" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+      <c r="B10">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>1000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -636,179 +886,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5714285714286"/>
+    <col min="1" max="1" width="21.5703125"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -816,60 +1062,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5714285714286"/>
+    <col min="1" max="1" width="17.140625"/>
+    <col min="2" max="2" width="16.7109375"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -877,283 +1119,279 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.1887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5714285714286"/>
+    <col min="1" max="1" width="52.140625"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+      <c r="B18" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+      <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+    <row r="22" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A22" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A23" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+      <c r="B24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
+      <c r="B25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A26" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A27" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1161,107 +1399,103 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5714285714286"/>
+    <col min="1" max="1" width="28"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A6" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="15" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A15" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A17" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A18" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A19" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A20" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A21" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1269,67 +1503,63 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5714285714286"/>
+    <col min="1" max="1" width="24.140625"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A3" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.2" customHeight="1">
+      <c r="A4" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
